--- a/index/weights.xlsx
+++ b/index/weights.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8700"/>
+    <workbookView windowWidth="28800" windowHeight="13260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Property Rights</t>
+  </si>
+  <si>
+    <t>Judical Effectiveness</t>
+  </si>
+  <si>
+    <t>Government Integrity</t>
+  </si>
+  <si>
+    <t>Tax Burden</t>
+  </si>
+  <si>
+    <t>Gov't Spending</t>
+  </si>
+  <si>
+    <t>Fiscal Health</t>
+  </si>
+  <si>
+    <t>Business Freedom</t>
+  </si>
+  <si>
+    <t>Labor Freedom</t>
+  </si>
+  <si>
+    <t>Monetary Freedom</t>
+  </si>
+  <si>
+    <t>Trade Freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investment Freedom </t>
+  </si>
+  <si>
+    <t>Financial Freedom</t>
+  </si>
   <si>
     <t>weights</t>
   </si>
@@ -28,8 +64,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -40,11 +76,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -502,7 +537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -511,10 +546,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -523,7 +558,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -532,13 +567,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,9 +682,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1001,53 +1039,91 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:M2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <sheetData>
+    <row r="1" ht="39.6" spans="2:13">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.083</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.083</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.083</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.083</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.083</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.083</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.083</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.083</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.083</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.083</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0.083</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.083</v>
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.07</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.14</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.07</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
